--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46643.22349246973</v>
+        <v>-53079.74806805661</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11616203.49799146</v>
+        <v>11615613.51860104</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>28.01229629596978</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>257.3019205002191</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>3.530717600874109</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>87.69704062662834</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.8297987198068</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.02720608716214</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>328.216870725905</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>69.17388198784671</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>126.6954452315371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.03638470914576</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>269.0325069898838</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>165.8372964400989</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>149.1111340350796</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.1349037771193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>13.62688533435039</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>32.4249947448349</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>97.42475435993875</v>
@@ -1543,10 +1543,10 @@
         <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>55.23736735473285</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>72.74195066972609</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1588,10 +1588,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>1.038309549886222</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1667,13 +1667,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>22.58939939127055</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>54.56522687043348</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1822,7 +1822,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>118.684500283841</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1898,7 +1898,7 @@
         <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838884</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828896</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431729</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459969</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643942</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931853</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390858</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147793</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804998</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922191</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367783</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920514</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3518,7 +3518,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
         <v>6.593776422875436</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.710000315373</v>
+        <v>773.0038118743911</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.710000315373</v>
+        <v>773.0038118743911</v>
       </c>
       <c r="D2" t="n">
-        <v>891.2688715320405</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="E2" t="n">
-        <v>488.685346648585</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="F2" t="n">
-        <v>71.7909081785628</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475494</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221119</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>681.4657240221119</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1633.115590885713</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1981.303083017235</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678798</v>
+        <v>1685.148180317392</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678798</v>
+        <v>1429.395450751991</v>
       </c>
       <c r="V2" t="n">
-        <v>1666.162605382316</v>
+        <v>1429.395450751991</v>
       </c>
       <c r="W2" t="n">
-        <v>1666.162605382316</v>
+        <v>1429.395450751991</v>
       </c>
       <c r="X2" t="n">
-        <v>1276.710000315373</v>
+        <v>1169.49452095379</v>
       </c>
       <c r="Y2" t="n">
-        <v>1276.710000315373</v>
+        <v>773.0038118743911</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>704.4227390072572</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>553.7685085673494</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466459</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467742</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1472529396809</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="C4" t="n">
-        <v>476.1472529396809</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="D4" t="n">
-        <v>476.1472529396809</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="E4" t="n">
-        <v>476.1472529396809</v>
+        <v>354.3077325818716</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338154</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>476.1472529396809</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>476.1472529396809</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X4" t="n">
-        <v>476.1472529396809</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="Y4" t="n">
-        <v>476.1472529396809</v>
+        <v>442.8906019016982</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1352.021939401999</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="C5" t="n">
-        <v>1352.021939401999</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="D5" t="n">
-        <v>966.5808106186671</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="E5" t="n">
-        <v>966.5808106186671</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477962</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>773.3325661833859</v>
       </c>
       <c r="M5" t="n">
-        <v>895.7983071407457</v>
+        <v>1286.935244793075</v>
       </c>
       <c r="N5" t="n">
-        <v>1423.609590778208</v>
+        <v>1286.935244793075</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1726.974845685403</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="U5" t="n">
-        <v>1752.516685113396</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="V5" t="n">
-        <v>1752.516685113396</v>
+        <v>1566.541973461494</v>
       </c>
       <c r="W5" t="n">
-        <v>1752.516685113396</v>
+        <v>1195.542938429782</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.516685113396</v>
+        <v>864.0107457773524</v>
       </c>
       <c r="Y5" t="n">
-        <v>1752.516685113396</v>
+        <v>467.5200366979536</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>786.3100318480333</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>635.6558014081255</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>505.5668340296058</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>369.1203431404936</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262592</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591875</v>
+        <v>407.9705203262592</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591875</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1117.420583213487</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>938.1063662889946</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475494</v>
+        <v>691.0740827268951</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475494</v>
+        <v>520.8689647928843</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475494</v>
+        <v>365.235851695399</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>365.235851695399</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>691.0740827268951</v>
       </c>
       <c r="V7" t="n">
-        <v>97.06776516156884</v>
+        <v>691.0740827268951</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475494</v>
+        <v>691.0740827268951</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475494</v>
+        <v>691.0740827268951</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475494</v>
+        <v>691.0740827268951</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.583586908615</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="C8" t="n">
-        <v>1058.583586908615</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.583586908615</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>656.0000620251599</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>643.1460275955417</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.583586908615</v>
+        <v>1399.691530617482</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>539.420211517574</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>539.420211517574</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>383.7870984200887</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X10" t="n">
-        <v>713.0409408113302</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1467.291089243225</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055463</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572345</v>
+        <v>470.02644983126</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3092.191854565018</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2908.235400145811</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2908.235400145811</v>
+        <v>2737.543083547902</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.032640260292</v>
+        <v>2438.340323662383</v>
       </c>
       <c r="X11" t="n">
-        <v>2291.376310339543</v>
+        <v>2120.683993741633</v>
       </c>
       <c r="Y11" t="n">
-        <v>1966.681876406338</v>
+        <v>1795.989559808428</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.8030133066248</v>
+        <v>396.6179077579205</v>
       </c>
       <c r="C13" t="n">
-        <v>387.3941705188079</v>
+        <v>298.2090649701037</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675165</v>
+        <v>214.3722270188123</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675165</v>
+        <v>214.3722270188123</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>214.3722270188123</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>117.9144482644517</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208436</v>
+        <v>117.9144482644517</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1371.15120974507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1207.228433059498</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>993.5859164475925</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>799.4028464146106</v>
+        <v>872.879564262819</v>
       </c>
       <c r="W13" t="n">
-        <v>799.4028464146106</v>
+        <v>661.3454373401906</v>
       </c>
       <c r="X13" t="n">
-        <v>637.1187993437876</v>
+        <v>661.3454373401906</v>
       </c>
       <c r="Y13" t="n">
-        <v>485.8030133066248</v>
+        <v>510.0296513030279</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.892289341942</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
         <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185758</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527727</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5312,16 +5312,16 @@
         <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.941523761099</v>
+        <v>2683.9415237611</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.941523761099</v>
+        <v>2384.738763875581</v>
       </c>
       <c r="X14" t="n">
-        <v>2366.28519384035</v>
+        <v>2384.738763875581</v>
       </c>
       <c r="Y14" t="n">
-        <v>2041.590759907145</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.744905612751</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229.7185026500105</v>
+        <v>347.745604232205</v>
       </c>
       <c r="C16" t="n">
-        <v>229.7185026500105</v>
+        <v>347.745604232205</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8816646987192</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.099553813156</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,19 +5437,19 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>868.2642062257322</v>
+        <v>872.8795642628193</v>
       </c>
       <c r="W16" t="n">
-        <v>656.7300793031037</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X16" t="n">
-        <v>494.4460322322807</v>
+        <v>499.0613902693677</v>
       </c>
       <c r="Y16" t="n">
-        <v>343.1302461951179</v>
+        <v>347.745604232205</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,13 +5908,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446693</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
         <v>629.0093992567331</v>
@@ -6075,16 +6075,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,19 +6464,19 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315959</v>
+        <v>2801.6635819815</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965124</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237456</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431908</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>261.0422972872697</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805502</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458845</v>
+        <v>723.1136360743162</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>906.3032701055254</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,16 +7093,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
         <v>812.1990332879427</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,19 +7436,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.619390679759</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214671</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7810,22 +7810,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7988,7 +7988,7 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>674.6180797729722</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>239.3060264988876</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211815</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>574.7607069788198</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>529.8612640735074</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>369.9076017544689</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>460.2293100588583</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269416</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083979</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,25 +8453,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>647.6646819662596</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N12" t="n">
-        <v>223.122899967847</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>187.5973797276328</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>403.0555909136999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>345.597757882153</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>571.8744206036796</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>136.5603986870952</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>235.18243406395</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.447801359827736</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.96765991481809</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>317.1271245374805</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.8580902026024</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>28.43324270134499</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>73.55673904881108</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-5.258016244624741e-13</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020729.898887726</v>
+        <v>1020429.125080846</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020729.898887726</v>
+        <v>1020429.125080846</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>905314.8241687996</v>
+        <v>905314.8241687994</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1022764.490314955</v>
+        <v>1022764.490314954</v>
       </c>
     </row>
     <row r="8">
@@ -26323,37 +26323,37 @@
         <v>223102.6327941606</v>
       </c>
       <c r="F2" t="n">
-        <v>223102.6327941607</v>
+        <v>223102.6327941606</v>
       </c>
       <c r="G2" t="n">
-        <v>252465.0493306994</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="H2" t="n">
         <v>252465.0493306994</v>
       </c>
       <c r="I2" t="n">
-        <v>252465.0493306993</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="J2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="K2" t="n">
         <v>252465.0493306995</v>
       </c>
       <c r="L2" t="n">
-        <v>252465.0493306997</v>
+        <v>252465.0493306993</v>
       </c>
       <c r="M2" t="n">
         <v>252465.0493306992</v>
       </c>
       <c r="N2" t="n">
-        <v>252465.0493306991</v>
+        <v>252465.0493306993</v>
       </c>
       <c r="O2" t="n">
-        <v>252465.0493306994</v>
+        <v>252465.049330699</v>
       </c>
       <c r="P2" t="n">
-        <v>252465.0493306992</v>
+        <v>252465.0493306993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539663</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892387</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26433,19 +26433,19 @@
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174500.0048904086</v>
+        <v>-171050.8804967545</v>
       </c>
       <c r="C6" t="n">
-        <v>7704.943401447163</v>
+        <v>2807.776537300939</v>
       </c>
       <c r="D6" t="n">
-        <v>2265.401425622927</v>
+        <v>-5470.887797768344</v>
       </c>
       <c r="E6" t="n">
-        <v>-29194.73689561865</v>
+        <v>-29404.46844230822</v>
       </c>
       <c r="F6" t="n">
-        <v>82927.82457842591</v>
+        <v>82718.09303173628</v>
       </c>
       <c r="G6" t="n">
-        <v>12122.24947102132</v>
+        <v>12122.24947102141</v>
       </c>
       <c r="H6" t="n">
-        <v>59547.57500770327</v>
+        <v>59547.5750077033</v>
       </c>
       <c r="I6" t="n">
+        <v>59547.57500770336</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-146978.057435009</v>
+      </c>
+      <c r="K6" t="n">
+        <v>53307.80660492041</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-5923.619540173109</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16295.050536892</v>
+      </c>
+      <c r="N6" t="n">
         <v>59547.57500770324</v>
       </c>
-      <c r="J6" t="n">
-        <v>-153494.3425895819</v>
-      </c>
-      <c r="K6" t="n">
-        <v>53307.80660492038</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-1874.782329700553</v>
-      </c>
-      <c r="M6" t="n">
-        <v>17346.74554808001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>59547.57500770301</v>
-      </c>
       <c r="O6" t="n">
-        <v>31779.88096493209</v>
+        <v>31779.8809649318</v>
       </c>
       <c r="P6" t="n">
-        <v>59547.5750077031</v>
+        <v>59547.57500770316</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.07030221924579</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155134</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.018831660907</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>128.2561585160547</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>146.7476534956776</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627135</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>95.65889787775993</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,10 +27546,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>47.92287671934996</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>365.6982879981599</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>57.34120829036868</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>54.01360606785281</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627135</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,10 +27786,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.8889586089809</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>227.4607133389884</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27856,7 +27856,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>139.998620966993</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>226.688505548506</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>4.892089984309877</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74603679440372</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R17" t="n">
         <v>37.61298457733328</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>130.3599693155844</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29223,25 +29223,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.636002634528467</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,28 +29296,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="K26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29536,13 +29536,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,7 +29551,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566375</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683160349</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253958</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031709</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30408,25 +30408,25 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.636002634528921</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>525.4995884351881</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>94.80732808049541</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701484</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>482.0731480899309</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>376.6130943430157</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>220.3437643303726</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>370.1689632019401</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776297</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N12" t="n">
-        <v>137.7507871136803</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2252668734662</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>213.0216270023944</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>310.668468864388</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,7 +36847,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044894</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114501</v>
+        <v>557.264365118496</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>230.2077838426626</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227377</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>486.502307749513</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595197</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345596</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>80.25061856046958</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905432</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
